--- a/quanlysinhvien/danhsachhocphan/lophocphan/96125_dsSV.xlsx
+++ b/quanlysinhvien/danhsachhocphan/lophocphan/96125_dsSV.xlsx
@@ -81,11 +81,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -94,7 +94,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="B1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>

--- a/quanlysinhvien/danhsachhocphan/lophocphan/96125_dsSV.xlsx
+++ b/quanlysinhvien/danhsachhocphan/lophocphan/96125_dsSV.xlsx
@@ -81,11 +81,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -94,7 +94,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="B1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
